--- a/data/massaJSON.xlsx
+++ b/data/massaJSON.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
-  <xr:revisionPtr documentId="10_ncr:8100800_{8041EB31-B417-4D67-A6F1-E97B982B98CE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SempreIT\eclipse-workspace\framework.java\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="3495" windowWidth="11340" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="6750" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="JSON" r:id="rId1" sheetId="1"/>
+    <sheet name="FakeAPI" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Field</t>
   </si>
@@ -65,16 +69,67 @@
     <t>M0z@rt290794</t>
   </si>
   <si>
-    <t>dennis.mozart@live.com</t>
-  </si>
-  <si>
-    <t>includindTest</t>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PageCount</t>
+  </si>
+  <si>
+    <t>Excerpt</t>
+  </si>
+  <si>
+    <t>PublishDate</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>2018-08-06T14:17:24.618Z</t>
+  </si>
+  <si>
+    <t>dennis_mozart4321</t>
+  </si>
+  <si>
+    <t>dennis.mozart@sempreteste.cpm.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -436,94 +491,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
